--- a/data/三维坐标表格.xlsx
+++ b/data/三维坐标表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10455"/>
+    <workbookView windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="200">
   <si>
     <t>序号</t>
   </si>
@@ -162,7 +162,7 @@
     <t>曹剑（沈）正颌</t>
   </si>
   <si>
-    <t>曹骄阳（张）正颌</t>
+    <t>曹骄阳（张）正颌2</t>
   </si>
   <si>
     <t>曹康（史）正颌</t>
@@ -420,9 +420,6 @@
     <t>冯毫杰（沈）正颌</t>
   </si>
   <si>
-    <t>106+</t>
-  </si>
-  <si>
     <t>冯继国（史）分块</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>高玮（史）正颌</t>
-  </si>
-  <si>
-    <t>65..56</t>
   </si>
   <si>
     <t>高祥（王）牵引（牙列不全）</t>
@@ -561,9 +555,6 @@
     <t>胡永海（于）正颌（牙列不全）</t>
   </si>
   <si>
-    <t>107,1</t>
-  </si>
-  <si>
     <t>胡韵祎（于）正颌</t>
   </si>
   <si>
@@ -630,13 +621,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -647,11 +638,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,14 +702,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,10 +722,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,16 +737,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,6 +748,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,35 +769,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -778,20 +776,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,31 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,43 +809,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +845,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,13 +941,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,67 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,6 +988,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1011,18 +1050,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,21 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1071,177 +1088,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,57 +1248,60 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1564,16 +1564,16 @@
   <sheetPr/>
   <dimension ref="A1:F4118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3918" workbookViewId="0">
-      <selection activeCell="D3936" sqref="D3936"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.53982300884956" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.8141592920354" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6371681415929" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.53982300884956" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.53777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8133333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6355555555556" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.53777777777778" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1617,7 +1617,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="2:6">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1634,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1651,10 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1659,8 +1668,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
@@ -1673,8 +1685,11 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
@@ -1687,8 +1702,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
@@ -1701,8 +1719,11 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2">
@@ -1715,7 +1736,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1753,10 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,7 +1770,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1787,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1771,8 +1804,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2">
@@ -1785,8 +1821,11 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2">
@@ -1799,7 +1838,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1855,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +1872,10 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1841,7 +1889,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1906,10 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="2:6">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1923,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="2:6">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1883,8 +1940,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2">
@@ -1897,7 +1957,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="2:6">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1974,10 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="2:6">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
@@ -34993,8 +35059,8 @@
       <c r="C2400" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2400" s="2" t="s">
-        <v>134</v>
+      <c r="D2400" s="2">
+        <v>106</v>
       </c>
       <c r="E2400" s="2">
         <v>108.28</v>
@@ -35232,7 +35298,7 @@
         <v>107</v>
       </c>
       <c r="B2417" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2417" s="1" t="s">
         <v>7</v>
@@ -35542,7 +35608,7 @@
         <v>108</v>
       </c>
       <c r="B2440" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2440" s="1" t="s">
         <v>7</v>
@@ -35870,7 +35936,7 @@
         <v>109</v>
       </c>
       <c r="B2463" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2463" s="1" t="s">
         <v>7</v>
@@ -36198,7 +36264,7 @@
         <v>110</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2486" s="1" t="s">
         <v>7</v>
@@ -36526,7 +36592,7 @@
         <v>111</v>
       </c>
       <c r="B2509" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2509" s="1" t="s">
         <v>7</v>
@@ -36854,7 +36920,7 @@
         <v>112</v>
       </c>
       <c r="B2532" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2532" s="1" t="s">
         <v>7</v>
@@ -37182,7 +37248,7 @@
         <v>113</v>
       </c>
       <c r="B2555" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2555" s="1" t="s">
         <v>7</v>
@@ -37510,7 +37576,7 @@
         <v>114</v>
       </c>
       <c r="B2578" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2578" s="1" t="s">
         <v>7</v>
@@ -37838,7 +37904,7 @@
         <v>115</v>
       </c>
       <c r="B2601" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2601" s="1" t="s">
         <v>7</v>
@@ -38166,7 +38232,7 @@
         <v>116</v>
       </c>
       <c r="B2624" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2624" s="1" t="s">
         <v>7</v>
@@ -38494,7 +38560,7 @@
         <v>117</v>
       </c>
       <c r="B2647" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2647" s="1" t="s">
         <v>7</v>
@@ -38822,7 +38888,7 @@
         <v>118</v>
       </c>
       <c r="B2670" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2670" s="1" t="s">
         <v>7</v>
@@ -38858,8 +38924,8 @@
       <c r="D2672" s="2">
         <v>61</v>
       </c>
-      <c r="E2672" s="2" t="s">
-        <v>147</v>
+      <c r="E2672" s="2">
+        <v>65.56</v>
       </c>
       <c r="F2672" s="2">
         <v>-13</v>
@@ -39150,7 +39216,7 @@
         <v>119</v>
       </c>
       <c r="B2693" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2693" s="1" t="s">
         <v>7</v>
@@ -39478,7 +39544,7 @@
         <v>120</v>
       </c>
       <c r="B2716" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2716" s="1" t="s">
         <v>7</v>
@@ -39806,7 +39872,7 @@
         <v>121</v>
       </c>
       <c r="B2739" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2739" s="1" t="s">
         <v>7</v>
@@ -40134,7 +40200,7 @@
         <v>122</v>
       </c>
       <c r="B2762" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2762" s="1" t="s">
         <v>7</v>
@@ -40453,7 +40519,7 @@
         <v>123</v>
       </c>
       <c r="B2785" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2785" s="1" t="s">
         <v>7</v>
@@ -40781,7 +40847,7 @@
         <v>124</v>
       </c>
       <c r="B2808" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2808" s="1" t="s">
         <v>7</v>
@@ -41109,7 +41175,7 @@
         <v>125</v>
       </c>
       <c r="B2831" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2831" s="1" t="s">
         <v>7</v>
@@ -41437,7 +41503,7 @@
         <v>126</v>
       </c>
       <c r="B2854" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2854" s="1" t="s">
         <v>7</v>
@@ -41765,7 +41831,7 @@
         <v>127</v>
       </c>
       <c r="B2877" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2877" s="1" t="s">
         <v>7</v>
@@ -41886,7 +41952,7 @@
         <v>128</v>
       </c>
       <c r="B2900" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2900" s="1" t="s">
         <v>7</v>
@@ -42214,7 +42280,7 @@
         <v>129</v>
       </c>
       <c r="B2923" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2923" s="1" t="s">
         <v>7</v>
@@ -42542,7 +42608,7 @@
         <v>130</v>
       </c>
       <c r="B2946" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2946" s="1" t="s">
         <v>7</v>
@@ -42861,7 +42927,7 @@
         <v>131</v>
       </c>
       <c r="B2969" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2969" s="1" t="s">
         <v>7</v>
@@ -43189,7 +43255,7 @@
         <v>132</v>
       </c>
       <c r="B2992" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2992" s="1" t="s">
         <v>7</v>
@@ -43310,7 +43376,7 @@
         <v>133</v>
       </c>
       <c r="B3015" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3015" s="1" t="s">
         <v>7</v>
@@ -43431,7 +43497,7 @@
         <v>134</v>
       </c>
       <c r="B3038" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3038" s="1" t="s">
         <v>7</v>
@@ -43741,7 +43807,7 @@
         <v>135</v>
       </c>
       <c r="B3061" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3061" s="1" t="s">
         <v>7</v>
@@ -44069,7 +44135,7 @@
         <v>136</v>
       </c>
       <c r="B3084" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3084" s="1" t="s">
         <v>7</v>
@@ -44397,7 +44463,7 @@
         <v>137</v>
       </c>
       <c r="B3107" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3107" s="1" t="s">
         <v>7</v>
@@ -44725,7 +44791,7 @@
         <v>138</v>
       </c>
       <c r="B3130" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3130" s="1" t="s">
         <v>7</v>
@@ -45053,7 +45119,7 @@
         <v>139</v>
       </c>
       <c r="B3153" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3153" s="1" t="s">
         <v>7</v>
@@ -45381,7 +45447,7 @@
         <v>140</v>
       </c>
       <c r="B3176" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3176" s="1" t="s">
         <v>7</v>
@@ -45709,7 +45775,7 @@
         <v>141</v>
       </c>
       <c r="B3199" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3199" s="1" t="s">
         <v>7</v>
@@ -46037,7 +46103,7 @@
         <v>142</v>
       </c>
       <c r="B3222" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3222" s="1" t="s">
         <v>7</v>
@@ -46365,7 +46431,7 @@
         <v>143</v>
       </c>
       <c r="B3245" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3245" s="1" t="s">
         <v>7</v>
@@ -46693,7 +46759,7 @@
         <v>144</v>
       </c>
       <c r="B3268" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3268" s="1" t="s">
         <v>7</v>
@@ -47021,7 +47087,7 @@
         <v>145</v>
       </c>
       <c r="B3291" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3291" s="1" t="s">
         <v>7</v>
@@ -47340,7 +47406,7 @@
         <v>146</v>
       </c>
       <c r="B3314" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3314" s="1" t="s">
         <v>7</v>
@@ -47668,7 +47734,7 @@
         <v>147</v>
       </c>
       <c r="B3337" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3337" s="1" t="s">
         <v>7</v>
@@ -47996,7 +48062,7 @@
         <v>148</v>
       </c>
       <c r="B3360" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3360" s="1" t="s">
         <v>7</v>
@@ -48324,7 +48390,7 @@
         <v>149</v>
       </c>
       <c r="B3383" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3383" s="1" t="s">
         <v>7</v>
@@ -48652,7 +48718,7 @@
         <v>150</v>
       </c>
       <c r="B3406" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3406" s="1" t="s">
         <v>7</v>
@@ -48980,7 +49046,7 @@
         <v>151</v>
       </c>
       <c r="B3429" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3429" s="1" t="s">
         <v>7</v>
@@ -49031,7 +49097,7 @@
         <v>50.4</v>
       </c>
       <c r="E3432" s="2">
-        <v>312.07</v>
+        <v>32.07</v>
       </c>
       <c r="F3432" s="2">
         <v>1</v>
@@ -49083,8 +49149,8 @@
       <c r="C3436" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3436" s="2" t="s">
-        <v>181</v>
+      <c r="D3436" s="2">
+        <v>107.1</v>
       </c>
       <c r="E3436" s="2">
         <v>102.88</v>
@@ -49308,7 +49374,7 @@
         <v>152</v>
       </c>
       <c r="B3452" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3452" s="1" t="s">
         <v>7</v>
@@ -49636,7 +49702,7 @@
         <v>153</v>
       </c>
       <c r="B3475" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3475" s="1" t="s">
         <v>7</v>
@@ -49964,7 +50030,7 @@
         <v>154</v>
       </c>
       <c r="B3498" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3498" s="1" t="s">
         <v>7</v>
@@ -50292,7 +50358,7 @@
         <v>155</v>
       </c>
       <c r="B3521" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3521" s="1" t="s">
         <v>7</v>
@@ -50620,7 +50686,7 @@
         <v>156</v>
       </c>
       <c r="B3544" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3544" s="1" t="s">
         <v>7</v>
@@ -50948,7 +51014,7 @@
         <v>157</v>
       </c>
       <c r="B3567" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3567" s="1" t="s">
         <v>7</v>
@@ -51276,7 +51342,7 @@
         <v>158</v>
       </c>
       <c r="B3590" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3590" s="1" t="s">
         <v>7</v>
@@ -51604,7 +51670,7 @@
         <v>159</v>
       </c>
       <c r="B3613" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C3613" s="1" t="s">
         <v>7</v>
@@ -51932,7 +51998,7 @@
         <v>160</v>
       </c>
       <c r="B3636" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3636" s="1" t="s">
         <v>7</v>
@@ -52260,7 +52326,7 @@
         <v>161</v>
       </c>
       <c r="B3659" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3659" s="1" t="s">
         <v>7</v>
@@ -52588,7 +52654,7 @@
         <v>162</v>
       </c>
       <c r="B3682" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3682" s="1" t="s">
         <v>7</v>
@@ -52889,7 +52955,7 @@
         <v>163</v>
       </c>
       <c r="B3705" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3705" s="1" t="s">
         <v>7</v>
@@ -53217,7 +53283,7 @@
         <v>164</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3728" s="1" t="s">
         <v>7</v>
@@ -53545,7 +53611,7 @@
         <v>165</v>
       </c>
       <c r="B3751" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C3751" s="1" t="s">
         <v>7</v>
@@ -53873,7 +53939,7 @@
         <v>166</v>
       </c>
       <c r="B3774" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3774" s="1" t="s">
         <v>7</v>
@@ -54201,7 +54267,7 @@
         <v>167</v>
       </c>
       <c r="B3797" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3797" s="1" t="s">
         <v>7</v>
@@ -54529,7 +54595,7 @@
         <v>168</v>
       </c>
       <c r="B3820" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3820" s="1" t="s">
         <v>7</v>
@@ -54857,7 +54923,7 @@
         <v>169</v>
       </c>
       <c r="B3843" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3843" s="1" t="s">
         <v>7</v>
@@ -55185,7 +55251,7 @@
         <v>170</v>
       </c>
       <c r="B3866" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3866" s="1" t="s">
         <v>7</v>
@@ -55495,7 +55561,7 @@
         <v>171</v>
       </c>
       <c r="B3889" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3889" s="1" t="s">
         <v>7</v>
@@ -55814,7 +55880,7 @@
         <v>172</v>
       </c>
       <c r="B3912" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3912" s="1" t="s">
         <v>7</v>
@@ -57097,7 +57163,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -57114,7 +57180,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
